--- a/similarities/split_global/harmonic_similarity_timestamps_174.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_174.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:min/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:38.220000')]</t>
+          <t>('0:00:14.360000', '0:00:19.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:32.660000', '0:00:35.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=32.66</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:23.820000')]</t>
+          <t>('0:00:01.014823', '0:00:06.126439')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=1.014823</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.590000', '0:00:02.260000')]</t>
+          <t>('0:00:11.510000', '0:00:15.070000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.570000', '0:01:05.210000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=0.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=59.57']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:40.600000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:31.840000', '0:01:43.940000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=40.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F:7', 'Bb', 'Eb:7', 'Bb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:7', 'C', 'F:7', 'C', 'C:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
+          <t>('0:00:13.900000', '0:00:27.370000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
+          <t>('0:00:04.100000', '0:00:10.490000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=13.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:23.080000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:00:45.940000', '0:00:59.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=23.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=45.94</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:07.220000', '0:01:12.400000')]</t>
+          <t>('0:00:42.100000', '0:00:48.620000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:00:05.010000', '0:00:09.700000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=67.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=42.1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=5.01</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:39.020000', '0:00:47.120000')]</t>
+          <t>('0:00:08.080000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:38.200000', '0:00:42.240000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'F']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:04.605000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:16.132993', '0:01:17.561020')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.132993']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984'), ('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+          <t>('0:00:04.155032', '0:00:07.525011')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['G', 'F', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+          <t>('0:00:50.431858', '0:00:56.991495')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
+          <t>('0:01:45.047000', '0:01:51.491000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=50.431858</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=241.22']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=105.047</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
